--- a/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_TongHop.xlsx
@@ -65,9 +65,6 @@
     <t>Tên khoa</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].DEPARTMENTGROUPID</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].DANGDT_1517</t>
   </si>
   <si>
@@ -216,16 +213,18 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TONG_0338</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -404,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,9 +426,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,6 +448,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -466,35 +477,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,254 +790,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AE1" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="13" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="11" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="11" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="11" customWidth="1"/>
     <col min="13" max="42" width="13.28515625" style="1" customWidth="1"/>
     <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="23" t="s">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="23" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="23" t="s">
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="23" t="s">
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="23" t="s">
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="23" t="s">
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="24"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="31"/>
     </row>
-    <row r="7" spans="1:42" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:42" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="13" t="s">
+      <c r="AD7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AF7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AH7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AI7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AK7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AL7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AM7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="11" t="s">
+      <c r="AN7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AO7" s="11" t="s">
+      <c r="AO7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AP7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1040,318 +1045,318 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="15" t="s">
+      <c r="P8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="S8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="T8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="U8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="V8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="W8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="X8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="Y8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Z8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Z8" s="16" t="s">
+      <c r="AA8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AB8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AC8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AD8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AE8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AF8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AG8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AH8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AH8" s="16" t="s">
+      <c r="AI8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AJ8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AK8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="AL8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AL8" s="16" t="s">
+      <c r="AM8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AN8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AN8" s="15" t="s">
+      <c r="AO8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AO8" s="15" t="s">
+      <c r="AP8" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="AP8" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="10">
+      <c r="B9" s="28"/>
+      <c r="C9" s="34">
         <f t="shared" ref="C9" si="0">SUM(C8:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="34">
         <f t="shared" ref="D9" si="1">SUM(D8:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="34">
         <f t="shared" ref="E9" si="2">SUM(E8:E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="34">
         <f t="shared" ref="F9" si="3">SUM(F8:F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="34">
         <f t="shared" ref="G9" si="4">SUM(G8:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="34">
         <f t="shared" ref="H9" si="5">SUM(H8:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="34">
         <f t="shared" ref="I9" si="6">SUM(I8:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="34">
         <f t="shared" ref="J9" si="7">SUM(J8:J8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="34">
         <f t="shared" ref="K9" si="8">SUM(K8:K8)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="34">
         <f t="shared" ref="L9" si="9">SUM(L8:L8)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="34">
         <f t="shared" ref="M9" si="10">SUM(M8:M8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="34">
         <f t="shared" ref="N9" si="11">SUM(N8:N8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="34">
         <f t="shared" ref="O9" si="12">SUM(O8:O8)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="34">
         <f t="shared" ref="P9" si="13">SUM(P8:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="34">
         <f t="shared" ref="Q9" si="14">SUM(Q8:Q8)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="34">
         <f t="shared" ref="R9" si="15">SUM(R8:R8)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="34">
         <f t="shared" ref="S9" si="16">SUM(S8:S8)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="34">
         <f t="shared" ref="T9" si="17">SUM(T8:T8)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="34">
         <f t="shared" ref="U9" si="18">SUM(U8:U8)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="34">
         <f t="shared" ref="V9" si="19">SUM(V8:V8)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="34">
         <f t="shared" ref="W9" si="20">SUM(W8:W8)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="34">
         <f t="shared" ref="X9" si="21">SUM(X8:X8)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="34">
         <f t="shared" ref="Y9" si="22">SUM(Y8:Y8)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="34">
         <f t="shared" ref="Z9" si="23">SUM(Z8:Z8)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="34">
         <f t="shared" ref="AA9" si="24">SUM(AA8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="34">
         <f t="shared" ref="AB9" si="25">SUM(AB8:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="34">
         <f t="shared" ref="AC9" si="26">SUM(AC8:AC8)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="34">
         <f t="shared" ref="AD9" si="27">SUM(AD8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="34">
         <f t="shared" ref="AE9" si="28">SUM(AE8:AE8)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="34">
         <f t="shared" ref="AF9" si="29">SUM(AF8:AF8)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="34">
         <f t="shared" ref="AG9" si="30">SUM(AG8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="34">
         <f t="shared" ref="AH9" si="31">SUM(AH8:AH8)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="34">
         <f t="shared" ref="AI9" si="32">SUM(AI8:AI8)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="34">
         <f t="shared" ref="AJ9" si="33">SUM(AJ8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="34">
         <f t="shared" ref="AK9" si="34">SUM(AK8:AK8)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AL9" s="34">
         <f t="shared" ref="AL9" si="35">SUM(AL8:AL8)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AM9" s="34">
         <f t="shared" ref="AM9" si="36">SUM(AM8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="34">
         <f t="shared" ref="AN9" si="37">SUM(AN8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="34">
         <f t="shared" ref="AO9" si="38">SUM(AO8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AP9" s="34">
         <f t="shared" ref="AP9" si="39">SUM(AP8:AP8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="AI6:AL6"/>
     <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="AI6:AL6"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="F3:L3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>

--- a/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_TongHop.xlsx
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>BÁO CÁO SỬ DỤNG THUỐC</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -456,6 +456,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,24 +499,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,7 +791,7 @@
   <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:AP9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,540 +812,547 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="F2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="F3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="6" spans="1:42" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="29" t="s">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="29" t="s">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="29" t="s">
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="29" t="s">
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="29" t="s">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="29" t="s">
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="29" t="s">
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="31"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="23"/>
     </row>
     <row r="7" spans="1:42" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="N7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="O7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="R7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="S7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="V7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="W7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="Z7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AA7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AD7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AE7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="10" t="s">
+      <c r="AH7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AI7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AL7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AK7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AM7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="10" t="s">
+      <c r="AP7" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="M8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="O8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="14" t="s">
+      <c r="R8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="S8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="T8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="U8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="V8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="X8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="Y8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="Z8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="AA8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="AB8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="14" t="s">
+      <c r="AC8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="14" t="s">
+      <c r="AD8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="14" t="s">
+      <c r="AE8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AF8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="14" t="s">
+      <c r="AG8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" s="14" t="s">
+      <c r="AH8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AG8" s="14" t="s">
+      <c r="AI8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AJ8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AI8" s="14" t="s">
+      <c r="AK8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AJ8" s="14" t="s">
+      <c r="AL8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AK8" s="14" t="s">
+      <c r="AM8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AL8" s="15" t="s">
+      <c r="AN8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AM8" s="14" t="s">
+      <c r="AO8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AN8" s="14" t="s">
+      <c r="AP8" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="AO8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP8" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="34">
+      <c r="A9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="20">
         <f t="shared" ref="C9" si="0">SUM(C8:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="20">
         <f t="shared" ref="D9" si="1">SUM(D8:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="20">
         <f t="shared" ref="E9" si="2">SUM(E8:E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="20">
         <f t="shared" ref="F9" si="3">SUM(F8:F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="20">
         <f t="shared" ref="G9" si="4">SUM(G8:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="20">
         <f t="shared" ref="H9" si="5">SUM(H8:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="20">
         <f t="shared" ref="I9" si="6">SUM(I8:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="20">
         <f t="shared" ref="J9" si="7">SUM(J8:J8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="20">
         <f t="shared" ref="K9" si="8">SUM(K8:K8)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="20">
         <f t="shared" ref="L9" si="9">SUM(L8:L8)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="10">SUM(M8:M8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="20">
         <f t="shared" ref="N9" si="11">SUM(N8:N8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="20">
         <f t="shared" ref="O9" si="12">SUM(O8:O8)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="20">
         <f t="shared" ref="P9" si="13">SUM(P8:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="20">
         <f t="shared" ref="Q9" si="14">SUM(Q8:Q8)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="20">
         <f t="shared" ref="R9" si="15">SUM(R8:R8)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="20">
         <f t="shared" ref="S9" si="16">SUM(S8:S8)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="20">
         <f t="shared" ref="T9" si="17">SUM(T8:T8)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="20">
         <f t="shared" ref="U9" si="18">SUM(U8:U8)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="20">
         <f t="shared" ref="V9" si="19">SUM(V8:V8)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="20">
         <f t="shared" ref="W9" si="20">SUM(W8:W8)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="20">
         <f t="shared" ref="X9" si="21">SUM(X8:X8)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="20">
         <f t="shared" ref="Y9" si="22">SUM(Y8:Y8)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="20">
         <f t="shared" ref="Z9" si="23">SUM(Z8:Z8)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="20">
         <f t="shared" ref="AA9" si="24">SUM(AA8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="20">
         <f t="shared" ref="AB9" si="25">SUM(AB8:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="34">
+      <c r="AC9" s="20">
         <f t="shared" ref="AC9" si="26">SUM(AC8:AC8)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="20">
         <f t="shared" ref="AD9" si="27">SUM(AD8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="20">
         <f t="shared" ref="AE9" si="28">SUM(AE8:AE8)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="34">
+      <c r="AF9" s="20">
         <f t="shared" ref="AF9" si="29">SUM(AF8:AF8)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="34">
+      <c r="AG9" s="20">
         <f t="shared" ref="AG9" si="30">SUM(AG8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="34">
+      <c r="AH9" s="20">
         <f t="shared" ref="AH9" si="31">SUM(AH8:AH8)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AI9" s="20">
         <f t="shared" ref="AI9" si="32">SUM(AI8:AI8)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AJ9" s="20">
         <f t="shared" ref="AJ9" si="33">SUM(AJ8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="34">
+      <c r="AK9" s="20">
         <f t="shared" ref="AK9" si="34">SUM(AK8:AK8)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AL9" s="20">
         <f t="shared" ref="AL9" si="35">SUM(AL8:AL8)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="34">
+      <c r="AM9" s="20">
         <f t="shared" ref="AM9" si="36">SUM(AM8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="34">
+      <c r="AN9" s="20">
         <f t="shared" ref="AN9" si="37">SUM(AN8:AN8)</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="AO9" s="20">
         <f t="shared" ref="AO9" si="38">SUM(AO8:AO8)</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="34">
+      <c r="AP9" s="20">
         <f t="shared" ref="AP9" si="39">SUM(AP8:AP8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="R11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
     </row>
     <row r="12" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="AM6:AP6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
@@ -1357,13 +1364,6 @@
     <mergeCell ref="AI6:AL6"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="F3:L3"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
